--- a/data/pca/factorExposure/factorExposure_2011-03-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.006123827851179822</v>
+        <v>0.01161823330728863</v>
       </c>
       <c r="C2">
-        <v>-0.01148895390602455</v>
+        <v>9.877711495992636e-05</v>
       </c>
       <c r="D2">
-        <v>-0.04450346986307058</v>
+        <v>0.005123892373810796</v>
       </c>
       <c r="E2">
-        <v>0.0009767094907692135</v>
+        <v>-0.02087598902815344</v>
       </c>
       <c r="F2">
-        <v>0.00444016859582029</v>
+        <v>0.0245355768251787</v>
       </c>
       <c r="G2">
-        <v>0.02628097848679728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.00860423635224135</v>
+      </c>
+      <c r="H2">
+        <v>-0.01174633196299566</v>
+      </c>
+      <c r="I2">
+        <v>0.04585859018120014</v>
+      </c>
+      <c r="J2">
+        <v>0.05284012406425347</v>
+      </c>
+      <c r="K2">
+        <v>0.003585065330974352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.1038004129906365</v>
+        <v>0.1163779556887147</v>
       </c>
       <c r="C4">
-        <v>-0.02901735421035972</v>
+        <v>-0.05956744571331841</v>
       </c>
       <c r="D4">
-        <v>-0.04671227047260877</v>
+        <v>-0.004511767881997678</v>
       </c>
       <c r="E4">
-        <v>0.05856455847332267</v>
+        <v>-0.01292820698895875</v>
       </c>
       <c r="F4">
-        <v>0.03814764797794381</v>
+        <v>0.01882693143012782</v>
       </c>
       <c r="G4">
-        <v>0.03242259794707767</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.07494897034202415</v>
+      </c>
+      <c r="H4">
+        <v>-0.1368923026432844</v>
+      </c>
+      <c r="I4">
+        <v>0.01107832582379909</v>
+      </c>
+      <c r="J4">
+        <v>-0.04023247523732183</v>
+      </c>
+      <c r="K4">
+        <v>0.0214525759864479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1276180717594498</v>
+        <v>0.1240155209565322</v>
       </c>
       <c r="C6">
-        <v>-0.02596815934483974</v>
+        <v>-0.01213417767891744</v>
       </c>
       <c r="D6">
-        <v>-0.02469509096500105</v>
+        <v>0.009455848071861079</v>
       </c>
       <c r="E6">
-        <v>-0.006367191647370434</v>
+        <v>0.02347963323699391</v>
       </c>
       <c r="F6">
-        <v>-0.1494291704258066</v>
+        <v>0.01017381110920496</v>
       </c>
       <c r="G6">
-        <v>-0.1314706082532708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.07062276872159759</v>
+      </c>
+      <c r="H6">
+        <v>-0.03592335046303538</v>
+      </c>
+      <c r="I6">
+        <v>-0.2191888789932544</v>
+      </c>
+      <c r="J6">
+        <v>-0.3462119527970132</v>
+      </c>
+      <c r="K6">
+        <v>-0.1829512379806304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.09067269031053468</v>
+        <v>0.0766136527029815</v>
       </c>
       <c r="C7">
-        <v>-0.04101545545130272</v>
+        <v>-0.05846404713939865</v>
       </c>
       <c r="D7">
-        <v>-0.03912897888399438</v>
+        <v>0.03242334891089138</v>
       </c>
       <c r="E7">
-        <v>0.02453846534665003</v>
+        <v>-0.02271563682818603</v>
       </c>
       <c r="F7">
-        <v>-0.01707828982915779</v>
+        <v>0.03867393183514675</v>
       </c>
       <c r="G7">
-        <v>0.02355051786185448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02470674726770548</v>
+      </c>
+      <c r="H7">
+        <v>-0.04255090242647588</v>
+      </c>
+      <c r="I7">
+        <v>-0.004802515773317427</v>
+      </c>
+      <c r="J7">
+        <v>0.003814890864332531</v>
+      </c>
+      <c r="K7">
+        <v>0.09809633815740032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04310539974753374</v>
+        <v>0.05257179658577804</v>
       </c>
       <c r="C8">
-        <v>0.02305215478888614</v>
+        <v>-0.0124813456648249</v>
       </c>
       <c r="D8">
-        <v>-0.08557350058065552</v>
+        <v>0.01656338930962916</v>
       </c>
       <c r="E8">
-        <v>0.08922830434858327</v>
+        <v>-0.01100657207316667</v>
       </c>
       <c r="F8">
-        <v>0.0273237390096833</v>
+        <v>0.0113909784879824</v>
       </c>
       <c r="G8">
-        <v>0.1257698283368738</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.09749756618510745</v>
+      </c>
+      <c r="H8">
+        <v>-0.10658792557469</v>
+      </c>
+      <c r="I8">
+        <v>0.01061674103931544</v>
+      </c>
+      <c r="J8">
+        <v>-0.0366739261590497</v>
+      </c>
+      <c r="K8">
+        <v>0.02620007280733039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.09362616821963693</v>
+        <v>0.08708949774313153</v>
       </c>
       <c r="C9">
-        <v>-0.03797679801746996</v>
+        <v>-0.05370309604887331</v>
       </c>
       <c r="D9">
-        <v>-0.03623913558631182</v>
+        <v>0.004742503262999111</v>
       </c>
       <c r="E9">
-        <v>0.04656159106985783</v>
+        <v>-0.01715525452682143</v>
       </c>
       <c r="F9">
-        <v>0.02710837966721869</v>
+        <v>0.008892134275251802</v>
       </c>
       <c r="G9">
-        <v>0.07020881462900409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.0712200648000022</v>
+      </c>
+      <c r="H9">
+        <v>-0.1139659186797652</v>
+      </c>
+      <c r="I9">
+        <v>-0.01023005730496953</v>
+      </c>
+      <c r="J9">
+        <v>-0.01154582294956707</v>
+      </c>
+      <c r="K9">
+        <v>-0.002497054712492153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.03891943615941934</v>
+        <v>0.08977049875649665</v>
       </c>
       <c r="C10">
-        <v>0.1591466894646947</v>
+        <v>0.1762773337894134</v>
       </c>
       <c r="D10">
-        <v>-0.09619613710406591</v>
+        <v>-0.03032764923850671</v>
       </c>
       <c r="E10">
-        <v>0.02437918906683548</v>
+        <v>-0.03518252770068509</v>
       </c>
       <c r="F10">
-        <v>-0.03319726912381869</v>
+        <v>0.05161858249540804</v>
       </c>
       <c r="G10">
-        <v>0.002124180833010525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.000887338713593903</v>
+      </c>
+      <c r="H10">
+        <v>0.005336020800112228</v>
+      </c>
+      <c r="I10">
+        <v>-0.01599807126893004</v>
+      </c>
+      <c r="J10">
+        <v>-0.04012485124353258</v>
+      </c>
+      <c r="K10">
+        <v>0.04749864133148287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.0768216048257233</v>
+        <v>0.07767256769896257</v>
       </c>
       <c r="C11">
-        <v>-0.06102306374050945</v>
+        <v>-0.06144590041498534</v>
       </c>
       <c r="D11">
-        <v>-0.01060022713872065</v>
+        <v>0.02284314408148282</v>
       </c>
       <c r="E11">
-        <v>-0.007795978486047308</v>
+        <v>-0.02051507663088699</v>
       </c>
       <c r="F11">
-        <v>0.01990696726099742</v>
+        <v>-0.01935178316517223</v>
       </c>
       <c r="G11">
-        <v>0.1599953804955576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.08031939374577718</v>
+      </c>
+      <c r="H11">
+        <v>-0.1102113729014299</v>
+      </c>
+      <c r="I11">
+        <v>0.003428452048453544</v>
+      </c>
+      <c r="J11">
+        <v>0.1038219369284992</v>
+      </c>
+      <c r="K11">
+        <v>-0.005177809778596322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07282920336863374</v>
+        <v>0.07805813148685206</v>
       </c>
       <c r="C12">
-        <v>-0.03833843268812201</v>
+        <v>-0.06706607042403476</v>
       </c>
       <c r="D12">
-        <v>-0.004617274614882748</v>
+        <v>0.03084516286032426</v>
       </c>
       <c r="E12">
-        <v>0.03102421110201866</v>
+        <v>-0.04414712628443734</v>
       </c>
       <c r="F12">
-        <v>0.009695881161666009</v>
+        <v>-0.02812875659014919</v>
       </c>
       <c r="G12">
-        <v>0.1483041370033961</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.09916702664262519</v>
+      </c>
+      <c r="H12">
+        <v>-0.09381889957188974</v>
+      </c>
+      <c r="I12">
+        <v>-0.02074652412816655</v>
+      </c>
+      <c r="J12">
+        <v>0.1018508999679891</v>
+      </c>
+      <c r="K12">
+        <v>-0.01057129302989441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.06325901974884682</v>
+        <v>0.0411079503084376</v>
       </c>
       <c r="C13">
-        <v>-0.002265055067316653</v>
+        <v>-0.02497017179685943</v>
       </c>
       <c r="D13">
-        <v>-0.01242660023946009</v>
+        <v>0.0114088946760425</v>
       </c>
       <c r="E13">
-        <v>0.02122833038924115</v>
+        <v>0.00359984240394418</v>
       </c>
       <c r="F13">
-        <v>0.04372649346183247</v>
+        <v>0.02248413205939053</v>
       </c>
       <c r="G13">
-        <v>0.05182615757019556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.04503596159496388</v>
+      </c>
+      <c r="H13">
+        <v>-0.04394547395997947</v>
+      </c>
+      <c r="I13">
+        <v>-0.02951481441318067</v>
+      </c>
+      <c r="J13">
+        <v>-0.04259132011357403</v>
+      </c>
+      <c r="K13">
+        <v>0.02220607412940007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.05305407173961006</v>
+        <v>0.04444203079774076</v>
       </c>
       <c r="C14">
-        <v>-0.005534421272895208</v>
+        <v>-0.02026153991677096</v>
       </c>
       <c r="D14">
-        <v>-0.03229647074085378</v>
+        <v>-0.01126671055876629</v>
       </c>
       <c r="E14">
-        <v>0.02555134442804269</v>
+        <v>-0.01479350968398923</v>
       </c>
       <c r="F14">
-        <v>0.01558001590532929</v>
+        <v>-0.007391305641117302</v>
       </c>
       <c r="G14">
-        <v>0.06409395481931827</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.0528478535614376</v>
+      </c>
+      <c r="H14">
+        <v>-0.04832009052570628</v>
+      </c>
+      <c r="I14">
+        <v>0.01474093657866046</v>
+      </c>
+      <c r="J14">
+        <v>-0.05131603780176179</v>
+      </c>
+      <c r="K14">
+        <v>0.02689277498077618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.03869486581864733</v>
+        <v>0.02334606048892689</v>
       </c>
       <c r="C15">
-        <v>0.01106488901713696</v>
+        <v>-0.004204486528794998</v>
       </c>
       <c r="D15">
-        <v>-0.01067595819085169</v>
+        <v>0.004220790608547373</v>
       </c>
       <c r="E15">
-        <v>0.004444198948390515</v>
+        <v>0.01792335892762808</v>
       </c>
       <c r="F15">
-        <v>0.02474441429636954</v>
+        <v>0.03221598229344196</v>
       </c>
       <c r="G15">
-        <v>0.01692745095917795</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.0148619015805998</v>
+      </c>
+      <c r="H15">
+        <v>-0.007065891074095125</v>
+      </c>
+      <c r="I15">
+        <v>-0.0109006735906682</v>
+      </c>
+      <c r="J15">
+        <v>-0.05833043571757345</v>
+      </c>
+      <c r="K15">
+        <v>0.03057101076179232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.07973089316299757</v>
+        <v>0.08388951828727099</v>
       </c>
       <c r="C16">
-        <v>-0.0721871077430712</v>
+        <v>-0.06953258002701632</v>
       </c>
       <c r="D16">
-        <v>-0.01708301166573093</v>
+        <v>0.03464103086388758</v>
       </c>
       <c r="E16">
-        <v>0.03347673691620672</v>
+        <v>-0.0271052513244068</v>
       </c>
       <c r="F16">
-        <v>0.04478303488922361</v>
+        <v>-0.01571383086356897</v>
       </c>
       <c r="G16">
-        <v>0.1194542894671343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.1067734972301443</v>
+      </c>
+      <c r="H16">
+        <v>-0.09165397137150819</v>
+      </c>
+      <c r="I16">
+        <v>0.001273487259838548</v>
+      </c>
+      <c r="J16">
+        <v>0.1136311164808804</v>
+      </c>
+      <c r="K16">
+        <v>0.003083437060042417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.05160547169673396</v>
+        <v>0.05001052202500664</v>
       </c>
       <c r="C20">
-        <v>-0.02225511369160521</v>
+        <v>-0.03269559121585082</v>
       </c>
       <c r="D20">
-        <v>-0.01786401877648137</v>
+        <v>-0.009680678045176002</v>
       </c>
       <c r="E20">
-        <v>0.0232899038596141</v>
+        <v>0.0006191867852651372</v>
       </c>
       <c r="F20">
-        <v>0.01224970430846425</v>
+        <v>0.01848336876092474</v>
       </c>
       <c r="G20">
-        <v>0.1097416851357745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04331025239531285</v>
+      </c>
+      <c r="H20">
+        <v>-0.04872262727052435</v>
+      </c>
+      <c r="I20">
+        <v>0.005391413797429725</v>
+      </c>
+      <c r="J20">
+        <v>-0.03637977992300055</v>
+      </c>
+      <c r="K20">
+        <v>0.06093541161743147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.0282087632142565</v>
+        <v>0.02813602434062217</v>
       </c>
       <c r="C21">
-        <v>-0.03554496092478053</v>
+        <v>-0.01853237171961699</v>
       </c>
       <c r="D21">
-        <v>0.005017181026203641</v>
+        <v>-0.02855004373631397</v>
       </c>
       <c r="E21">
-        <v>0.01799121173873899</v>
+        <v>0.01177102964512203</v>
       </c>
       <c r="F21">
-        <v>-0.09188125386961371</v>
+        <v>-0.007519886519533105</v>
       </c>
       <c r="G21">
-        <v>-0.06409037858826713</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04127753634293473</v>
+      </c>
+      <c r="H21">
+        <v>-0.07025383783642553</v>
+      </c>
+      <c r="I21">
+        <v>-0.06641887849764662</v>
+      </c>
+      <c r="J21">
+        <v>-0.04254380678712377</v>
+      </c>
+      <c r="K21">
+        <v>0.1045654639170086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04434869080258503</v>
+        <v>0.03499171528303764</v>
       </c>
       <c r="C22">
-        <v>-0.005094522871403357</v>
+        <v>-0.002441985849729826</v>
       </c>
       <c r="D22">
-        <v>0.006792774315940863</v>
+        <v>0.08416586838386175</v>
       </c>
       <c r="E22">
-        <v>0.5616648447138031</v>
+        <v>0.3525470988649381</v>
       </c>
       <c r="F22">
-        <v>0.08139046347725519</v>
+        <v>0.5388632876640772</v>
       </c>
       <c r="G22">
-        <v>-0.3178006375439642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1210839248353973</v>
+      </c>
+      <c r="H22">
+        <v>0.145855512705848</v>
+      </c>
+      <c r="I22">
+        <v>-0.008616586592845954</v>
+      </c>
+      <c r="J22">
+        <v>0.08598641316420287</v>
+      </c>
+      <c r="K22">
+        <v>-0.04019439620188009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04445194038060641</v>
+        <v>0.0351996657818778</v>
       </c>
       <c r="C23">
-        <v>-0.005673827021617344</v>
+        <v>-0.002943645652201462</v>
       </c>
       <c r="D23">
-        <v>0.00524129360054997</v>
+        <v>0.08539213112949379</v>
       </c>
       <c r="E23">
-        <v>0.560785513311773</v>
+        <v>0.3538189027040871</v>
       </c>
       <c r="F23">
-        <v>0.08216068914569291</v>
+        <v>0.540656786361673</v>
       </c>
       <c r="G23">
-        <v>-0.3187221039108529</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.122484944633927</v>
+      </c>
+      <c r="H23">
+        <v>0.1423124162368558</v>
+      </c>
+      <c r="I23">
+        <v>-0.007598094599627227</v>
+      </c>
+      <c r="J23">
+        <v>0.08316869998395526</v>
+      </c>
+      <c r="K23">
+        <v>-0.04313599742211349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08588474998445311</v>
+        <v>0.08600643155931406</v>
       </c>
       <c r="C24">
-        <v>-0.04720351914413493</v>
+        <v>-0.061377081580781</v>
       </c>
       <c r="D24">
-        <v>-0.02496945621336918</v>
+        <v>0.01627381157863729</v>
       </c>
       <c r="E24">
-        <v>0.03375387031050246</v>
+        <v>-0.02371674781328326</v>
       </c>
       <c r="F24">
-        <v>0.008448851671928588</v>
+        <v>-0.01144378972895483</v>
       </c>
       <c r="G24">
-        <v>0.124824793234696</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.09771047462731423</v>
+      </c>
+      <c r="H24">
+        <v>-0.08937134537072958</v>
+      </c>
+      <c r="I24">
+        <v>-0.004737446098698373</v>
+      </c>
+      <c r="J24">
+        <v>0.1136778579359208</v>
+      </c>
+      <c r="K24">
+        <v>-0.01760634764758369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.07621181639721808</v>
+        <v>0.08727585074157883</v>
       </c>
       <c r="C25">
-        <v>-0.01942429504889678</v>
+        <v>-0.04719057963448354</v>
       </c>
       <c r="D25">
-        <v>-0.02645442759275184</v>
+        <v>0.02397361805713347</v>
       </c>
       <c r="E25">
-        <v>0.02504059516285975</v>
+        <v>-0.05214071217636228</v>
       </c>
       <c r="F25">
-        <v>0.001541762923778493</v>
+        <v>-0.0261742262092094</v>
       </c>
       <c r="G25">
-        <v>0.1175738207931231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.1016093910331309</v>
+      </c>
+      <c r="H25">
+        <v>-0.08050998938086762</v>
+      </c>
+      <c r="I25">
+        <v>-0.002020874176871525</v>
+      </c>
+      <c r="J25">
+        <v>0.09289201434622042</v>
+      </c>
+      <c r="K25">
+        <v>-0.01268576118787745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05180352580006795</v>
+        <v>0.04468177169599217</v>
       </c>
       <c r="C26">
-        <v>-0.02507640677610692</v>
+        <v>-0.007094963730644999</v>
       </c>
       <c r="D26">
-        <v>-0.0319105039098503</v>
+        <v>-0.01915302834630451</v>
       </c>
       <c r="E26">
-        <v>0.01302566936928411</v>
+        <v>0.01444454140515951</v>
       </c>
       <c r="F26">
-        <v>0.03480176418981564</v>
+        <v>0.005373847868697932</v>
       </c>
       <c r="G26">
-        <v>0.05111055103385642</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.05000451359452667</v>
+      </c>
+      <c r="H26">
+        <v>-0.02996461303844217</v>
+      </c>
+      <c r="I26">
+        <v>0.009143551579003468</v>
+      </c>
+      <c r="J26">
+        <v>-0.0334738037903229</v>
+      </c>
+      <c r="K26">
+        <v>0.006651506639175651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.06333555034500019</v>
+        <v>0.1062431147233499</v>
       </c>
       <c r="C28">
-        <v>0.2953827619577098</v>
+        <v>0.3172414079672193</v>
       </c>
       <c r="D28">
-        <v>-0.06302870671902966</v>
+        <v>0.01103514540772082</v>
       </c>
       <c r="E28">
-        <v>-0.03422504369458432</v>
+        <v>-0.02145533606561247</v>
       </c>
       <c r="F28">
-        <v>-0.04768791825034297</v>
+        <v>-0.003385617787089152</v>
       </c>
       <c r="G28">
-        <v>-0.01902201993193895</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0244363853143433</v>
+      </c>
+      <c r="H28">
+        <v>-0.006940763131900641</v>
+      </c>
+      <c r="I28">
+        <v>-0.01438910658315657</v>
+      </c>
+      <c r="J28">
+        <v>0.006394979538945821</v>
+      </c>
+      <c r="K28">
+        <v>0.01766397868482074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05823447853062026</v>
+        <v>0.04152524634464375</v>
       </c>
       <c r="C29">
-        <v>-0.009808284784861248</v>
+        <v>-0.01857874765132928</v>
       </c>
       <c r="D29">
-        <v>-0.02834236291575399</v>
+        <v>0.004277092508765259</v>
       </c>
       <c r="E29">
-        <v>0.04434550450993935</v>
+        <v>-0.03121751794050806</v>
       </c>
       <c r="F29">
-        <v>0.03718528627626672</v>
+        <v>0.006873304038822117</v>
       </c>
       <c r="G29">
-        <v>0.03987244486020541</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.09281344658174659</v>
+      </c>
+      <c r="H29">
+        <v>-0.03761812136489703</v>
+      </c>
+      <c r="I29">
+        <v>0.00212339483032049</v>
+      </c>
+      <c r="J29">
+        <v>-0.05215997083717975</v>
+      </c>
+      <c r="K29">
+        <v>0.04681738725423358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1141535775541812</v>
+        <v>0.1092709082159955</v>
       </c>
       <c r="C30">
-        <v>0.0228080965561823</v>
+        <v>-0.05463862955760949</v>
       </c>
       <c r="D30">
-        <v>-0.07719220641374362</v>
+        <v>0.04709599718313191</v>
       </c>
       <c r="E30">
-        <v>0.1983595383671607</v>
+        <v>0.002255882199839931</v>
       </c>
       <c r="F30">
-        <v>-0.06512274743927324</v>
+        <v>-0.01610768935971111</v>
       </c>
       <c r="G30">
-        <v>0.1489135043737712</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.1852243212515399</v>
+      </c>
+      <c r="H30">
+        <v>-0.09565853322446767</v>
+      </c>
+      <c r="I30">
+        <v>-0.1934187446829321</v>
+      </c>
+      <c r="J30">
+        <v>0.09591141516944865</v>
+      </c>
+      <c r="K30">
+        <v>-0.01265520766346725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05765890310475075</v>
+        <v>0.03916606967246943</v>
       </c>
       <c r="C31">
-        <v>-0.01729765082626791</v>
+        <v>-0.032648239374782</v>
       </c>
       <c r="D31">
-        <v>0.009682210056294858</v>
+        <v>0.003066784009882956</v>
       </c>
       <c r="E31">
-        <v>0.00772858486729182</v>
+        <v>0.002238976629636784</v>
       </c>
       <c r="F31">
-        <v>0.02648800259205245</v>
+        <v>0.00226856398888415</v>
       </c>
       <c r="G31">
-        <v>0.004317200942819194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01999206816757353</v>
+      </c>
+      <c r="H31">
+        <v>-0.01996962324683949</v>
+      </c>
+      <c r="I31">
+        <v>0.03613291981683769</v>
+      </c>
+      <c r="J31">
+        <v>-0.02612372101179768</v>
+      </c>
+      <c r="K31">
+        <v>-0.001846428809746789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03649945773246634</v>
+        <v>0.05323091805385727</v>
       </c>
       <c r="C32">
-        <v>0.01775125162905676</v>
+        <v>-0.0005368438028390784</v>
       </c>
       <c r="D32">
-        <v>-0.008690736140242428</v>
+        <v>-0.01753067015072142</v>
       </c>
       <c r="E32">
-        <v>0.08226983892552601</v>
+        <v>0.007123840740387462</v>
       </c>
       <c r="F32">
-        <v>0.1026013540001372</v>
+        <v>-0.0571695688731834</v>
       </c>
       <c r="G32">
-        <v>0.05467687667893966</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01930290640166046</v>
+      </c>
+      <c r="H32">
+        <v>-0.04045452943842941</v>
+      </c>
+      <c r="I32">
+        <v>0.009195090944967311</v>
+      </c>
+      <c r="J32">
+        <v>-0.01677089355418082</v>
+      </c>
+      <c r="K32">
+        <v>0.006116691656298793</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1112469084407358</v>
+        <v>0.09968274217557534</v>
       </c>
       <c r="C33">
-        <v>-0.01762565112853742</v>
+        <v>-0.05478238268294137</v>
       </c>
       <c r="D33">
-        <v>0.008001305471787849</v>
+        <v>0.06819324034907541</v>
       </c>
       <c r="E33">
-        <v>0.007133495836410974</v>
+        <v>-0.02666299357994129</v>
       </c>
       <c r="F33">
-        <v>0.0563446882633232</v>
+        <v>-0.01686383350964446</v>
       </c>
       <c r="G33">
-        <v>0.05406149504027948</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03982642784275933</v>
+      </c>
+      <c r="H33">
+        <v>-0.04859666368087538</v>
+      </c>
+      <c r="I33">
+        <v>0.0119733044247928</v>
+      </c>
+      <c r="J33">
+        <v>0.01560806700165972</v>
+      </c>
+      <c r="K33">
+        <v>-0.02342821780164269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06619481972588455</v>
+        <v>0.07108533583460641</v>
       </c>
       <c r="C34">
-        <v>-0.04803552182946225</v>
+        <v>-0.05562981257835056</v>
       </c>
       <c r="D34">
-        <v>-0.01227637804964066</v>
+        <v>0.01975132570017175</v>
       </c>
       <c r="E34">
-        <v>0.009822890147584569</v>
+        <v>-0.02843831744026557</v>
       </c>
       <c r="F34">
-        <v>0.02387520336065082</v>
+        <v>-0.01576709400141283</v>
       </c>
       <c r="G34">
-        <v>0.09892390810270606</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.09513398993084174</v>
+      </c>
+      <c r="H34">
+        <v>-0.08694619297122637</v>
+      </c>
+      <c r="I34">
+        <v>0.00195397320412225</v>
+      </c>
+      <c r="J34">
+        <v>0.08848935380052254</v>
+      </c>
+      <c r="K34">
+        <v>0.02316559728300784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04430398238084814</v>
+        <v>0.02100038350630905</v>
       </c>
       <c r="C35">
-        <v>-0.006133647484259526</v>
+        <v>-0.01684729303233883</v>
       </c>
       <c r="D35">
-        <v>0.01564398222573656</v>
+        <v>0.005084271640195763</v>
       </c>
       <c r="E35">
-        <v>0.0005768246117619389</v>
+        <v>-0.00583756723461329</v>
       </c>
       <c r="F35">
-        <v>-0.03007416619980171</v>
+        <v>-0.001210202443452968</v>
       </c>
       <c r="G35">
-        <v>0.04385219100672472</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.05857164225744299</v>
+      </c>
+      <c r="H35">
+        <v>-0.02418538276618825</v>
+      </c>
+      <c r="I35">
+        <v>-0.009432412637438782</v>
+      </c>
+      <c r="J35">
+        <v>-0.005238258170998471</v>
+      </c>
+      <c r="K35">
+        <v>0.06900855137290726</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03684889419642311</v>
+        <v>0.03045946550420173</v>
       </c>
       <c r="C36">
-        <v>-0.003712898930536049</v>
+        <v>-0.01193021725662595</v>
       </c>
       <c r="D36">
-        <v>-0.02337353729423358</v>
+        <v>0.004045484260306398</v>
       </c>
       <c r="E36">
-        <v>0.03415812949230265</v>
+        <v>0.00473963411070257</v>
       </c>
       <c r="F36">
-        <v>0.009441596068342903</v>
+        <v>0.006680719362145938</v>
       </c>
       <c r="G36">
-        <v>0.05475842294562206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.04767343063088482</v>
+      </c>
+      <c r="H36">
+        <v>-0.05068315952376483</v>
+      </c>
+      <c r="I36">
+        <v>-0.005999365868966903</v>
+      </c>
+      <c r="J36">
+        <v>-0.02770459304500475</v>
+      </c>
+      <c r="K36">
+        <v>-0.0144389629033148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.05414958836373499</v>
+        <v>0.0220461579454853</v>
       </c>
       <c r="C38">
-        <v>-0.01503487506397238</v>
+        <v>-0.02021553785045392</v>
       </c>
       <c r="D38">
-        <v>-0.00597266649633486</v>
+        <v>0.01293091668747555</v>
       </c>
       <c r="E38">
-        <v>0.007153574457648403</v>
+        <v>0.0001662208489428571</v>
       </c>
       <c r="F38">
-        <v>0.006876352140877124</v>
+        <v>0.0229993311818401</v>
       </c>
       <c r="G38">
-        <v>0.0540737422784511</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01353784365790728</v>
+      </c>
+      <c r="H38">
+        <v>0.04531036642368825</v>
+      </c>
+      <c r="I38">
+        <v>-0.00993317371545739</v>
+      </c>
+      <c r="J38">
+        <v>-0.01607450583562949</v>
+      </c>
+      <c r="K38">
+        <v>-0.005494992551526775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.1098793782235082</v>
+        <v>0.1195112548408176</v>
       </c>
       <c r="C39">
-        <v>-0.04134859583197117</v>
+        <v>-0.08628114962097516</v>
       </c>
       <c r="D39">
-        <v>-0.004767825675080064</v>
+        <v>0.04652749536700623</v>
       </c>
       <c r="E39">
-        <v>0.06798769539012126</v>
+        <v>-0.07675769217300224</v>
       </c>
       <c r="F39">
-        <v>0.01090523061149466</v>
+        <v>-0.07580989649851909</v>
       </c>
       <c r="G39">
-        <v>0.1518157472372239</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1372304611072006</v>
+      </c>
+      <c r="H39">
+        <v>-0.07100051071590086</v>
+      </c>
+      <c r="I39">
+        <v>-0.02193047071478559</v>
+      </c>
+      <c r="J39">
+        <v>0.1790918231853587</v>
+      </c>
+      <c r="K39">
+        <v>0.01113318809405656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.05336118903846934</v>
+        <v>0.01990245099514219</v>
       </c>
       <c r="C40">
-        <v>-0.02344204516949697</v>
+        <v>-0.03381204245646057</v>
       </c>
       <c r="D40">
-        <v>0.01716822674773557</v>
+        <v>-0.00184632564402654</v>
       </c>
       <c r="E40">
-        <v>0.100607566580804</v>
+        <v>0.03857975438778447</v>
       </c>
       <c r="F40">
-        <v>-0.010505805875206</v>
+        <v>0.05842852235858672</v>
       </c>
       <c r="G40">
-        <v>0.2401175461235075</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.06823221734473572</v>
+      </c>
+      <c r="H40">
+        <v>-0.09456187446105006</v>
+      </c>
+      <c r="I40">
+        <v>-0.0827181740140697</v>
+      </c>
+      <c r="J40">
+        <v>-0.03555900049346984</v>
+      </c>
+      <c r="K40">
+        <v>0.04688497353255555</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.04843886457396213</v>
+        <v>0.03273081821028738</v>
       </c>
       <c r="C41">
-        <v>-0.02914857270319645</v>
+        <v>-0.0167194218002036</v>
       </c>
       <c r="D41">
-        <v>0.0006096452093601713</v>
+        <v>-0.00681062368100779</v>
       </c>
       <c r="E41">
-        <v>-0.01325102236288424</v>
+        <v>-0.01172452249347632</v>
       </c>
       <c r="F41">
-        <v>0.02396033915107632</v>
+        <v>-0.002398454400646308</v>
       </c>
       <c r="G41">
-        <v>0.06475671202724979</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01926403300061267</v>
+      </c>
+      <c r="H41">
+        <v>-0.01350617154604923</v>
+      </c>
+      <c r="I41">
+        <v>0.01302303482579232</v>
+      </c>
+      <c r="J41">
+        <v>-0.01894685022079443</v>
+      </c>
+      <c r="K41">
+        <v>0.02755490208867596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.07330338377429284</v>
+        <v>0.04820449943974458</v>
       </c>
       <c r="C43">
-        <v>-0.02844278349410323</v>
+        <v>-0.0199638097984964</v>
       </c>
       <c r="D43">
-        <v>-0.01783902472489582</v>
+        <v>0.01532596519846285</v>
       </c>
       <c r="E43">
-        <v>0.02252920336012115</v>
+        <v>-0.004481480561695806</v>
       </c>
       <c r="F43">
-        <v>0.01851999927188624</v>
+        <v>0.01049287661302246</v>
       </c>
       <c r="G43">
-        <v>0.007844365234112138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.033333592224284</v>
+      </c>
+      <c r="H43">
+        <v>0.001474971058593081</v>
+      </c>
+      <c r="I43">
+        <v>0.009623961855595619</v>
+      </c>
+      <c r="J43">
+        <v>-0.01069500525531082</v>
+      </c>
+      <c r="K43">
+        <v>0.00917868988344225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.07238332973152262</v>
+        <v>0.1085116502503624</v>
       </c>
       <c r="C44">
-        <v>-0.01932220614572851</v>
+        <v>-0.09194045129116347</v>
       </c>
       <c r="D44">
-        <v>-0.09740599468638353</v>
+        <v>0.05241063088574302</v>
       </c>
       <c r="E44">
-        <v>0.06041101477294498</v>
+        <v>-0.01656420471917478</v>
       </c>
       <c r="F44">
-        <v>0.04352217529887578</v>
+        <v>0.114012902320917</v>
       </c>
       <c r="G44">
-        <v>0.1065589043128443</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.2335572074938</v>
+      </c>
+      <c r="H44">
+        <v>-0.1269880725206838</v>
+      </c>
+      <c r="I44">
+        <v>-0.06886743621943732</v>
+      </c>
+      <c r="J44">
+        <v>-0.06610187446157827</v>
+      </c>
+      <c r="K44">
+        <v>0.09740265616146061</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.04829528405536415</v>
+        <v>0.02712918439625256</v>
       </c>
       <c r="C46">
-        <v>-0.04135513186319151</v>
+        <v>-0.009986412406352167</v>
       </c>
       <c r="D46">
-        <v>-0.03034928468063997</v>
+        <v>0.01024694892713183</v>
       </c>
       <c r="E46">
-        <v>0.0515135396319771</v>
+        <v>0.0003154463043746952</v>
       </c>
       <c r="F46">
-        <v>0.02042336448585484</v>
+        <v>0.04549729038742092</v>
       </c>
       <c r="G46">
-        <v>0.03111677820961538</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05861526758342701</v>
+      </c>
+      <c r="H46">
+        <v>-0.02070353285492374</v>
+      </c>
+      <c r="I46">
+        <v>-0.009719559793222081</v>
+      </c>
+      <c r="J46">
+        <v>-0.04735042761514893</v>
+      </c>
+      <c r="K46">
+        <v>0.07838390274686699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.0479080574977401</v>
+        <v>0.04087365939111059</v>
       </c>
       <c r="C47">
-        <v>-0.001218906216479726</v>
+        <v>-0.01626500783554132</v>
       </c>
       <c r="D47">
-        <v>-0.007738984707272083</v>
+        <v>0.0005943817525875996</v>
       </c>
       <c r="E47">
-        <v>0.06229992070276281</v>
+        <v>0.008028124867848334</v>
       </c>
       <c r="F47">
-        <v>-0.005109338892697506</v>
+        <v>0.008192745123614913</v>
       </c>
       <c r="G47">
-        <v>-0.005354694087144911</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04622675600571337</v>
+      </c>
+      <c r="H47">
+        <v>-0.0229487348815884</v>
+      </c>
+      <c r="I47">
+        <v>-0.0008881200940274411</v>
+      </c>
+      <c r="J47">
+        <v>-0.04870085716392731</v>
+      </c>
+      <c r="K47">
+        <v>0.03015114682988102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.04447993757791098</v>
+        <v>0.04425709731297287</v>
       </c>
       <c r="C48">
-        <v>0.0006749773908138641</v>
+        <v>-0.01525517602951431</v>
       </c>
       <c r="D48">
-        <v>0.002779468389637484</v>
+        <v>0.00388168760772144</v>
       </c>
       <c r="E48">
-        <v>0.03575450086650134</v>
+        <v>-0.006975804577363707</v>
       </c>
       <c r="F48">
-        <v>0.0134549319815237</v>
+        <v>0.004788854851260364</v>
       </c>
       <c r="G48">
-        <v>0.03839841910516281</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.05934106659863663</v>
+      </c>
+      <c r="H48">
+        <v>-0.0431223463296237</v>
+      </c>
+      <c r="I48">
+        <v>-0.01901657355377914</v>
+      </c>
+      <c r="J48">
+        <v>0.001302569989275696</v>
+      </c>
+      <c r="K48">
+        <v>0.01688869941746461</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.2349724515001702</v>
+        <v>0.2298326567853291</v>
       </c>
       <c r="C49">
-        <v>-0.08887489668388233</v>
+        <v>-0.04007048836730472</v>
       </c>
       <c r="D49">
-        <v>-0.0221862106798053</v>
+        <v>-0.06055997380912087</v>
       </c>
       <c r="E49">
-        <v>-0.08711219000206868</v>
+        <v>-0.05426305115651107</v>
       </c>
       <c r="F49">
-        <v>-0.1687022551742627</v>
+        <v>0.00116582260240284</v>
       </c>
       <c r="G49">
-        <v>-0.07481169998594198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.206715174382531</v>
+      </c>
+      <c r="H49">
+        <v>0.1547844887887262</v>
+      </c>
+      <c r="I49">
+        <v>-0.1692478755955843</v>
+      </c>
+      <c r="J49">
+        <v>0.2551936821464462</v>
+      </c>
+      <c r="K49">
+        <v>-0.1435951338569393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.05505578357467975</v>
+        <v>0.04394942661101675</v>
       </c>
       <c r="C50">
-        <v>-0.01348614209934788</v>
+        <v>-0.02583634609517492</v>
       </c>
       <c r="D50">
-        <v>0.004253959371864098</v>
+        <v>-0.007468730255485423</v>
       </c>
       <c r="E50">
-        <v>0.0265146128747972</v>
+        <v>0.004094529166080517</v>
       </c>
       <c r="F50">
-        <v>0.05517604811637405</v>
+        <v>-0.0004454395302843564</v>
       </c>
       <c r="G50">
-        <v>-0.005598115195620985</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.04742022100334586</v>
+      </c>
+      <c r="H50">
+        <v>-0.02949312241529604</v>
+      </c>
+      <c r="I50">
+        <v>0.02035158320918302</v>
+      </c>
+      <c r="J50">
+        <v>-0.02532925131558064</v>
+      </c>
+      <c r="K50">
+        <v>-0.02365217682858978</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03835850903124097</v>
+        <v>0.02010380129524694</v>
       </c>
       <c r="C51">
-        <v>-0.01422903920284618</v>
+        <v>0.002897957122182911</v>
       </c>
       <c r="D51">
-        <v>-0.01424210547404761</v>
+        <v>0.01434653592839872</v>
       </c>
       <c r="E51">
-        <v>-0.001988152902635479</v>
+        <v>-0.01307756487364539</v>
       </c>
       <c r="F51">
-        <v>-0.006501830681481426</v>
+        <v>0.01614541266379829</v>
       </c>
       <c r="G51">
-        <v>-0.0002997688530408739</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02703003660480684</v>
+      </c>
+      <c r="H51">
+        <v>0.004439418333893294</v>
+      </c>
+      <c r="I51">
+        <v>-0.01256567197117824</v>
+      </c>
+      <c r="J51">
+        <v>0.02812325820625627</v>
+      </c>
+      <c r="K51">
+        <v>-0.003774110782233999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.07236393073397795</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.03904205055633939</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01104114589763792</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.01501248653441262</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.01523503323394319</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.0556014593843792</v>
+      </c>
+      <c r="H52">
+        <v>0.03903641047630062</v>
+      </c>
+      <c r="I52">
+        <v>0.1249641959284076</v>
+      </c>
+      <c r="J52">
+        <v>-0.01339582453573627</v>
+      </c>
+      <c r="K52">
+        <v>-0.009371036176285725</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1589947135480998</v>
+        <v>0.1624956404610481</v>
       </c>
       <c r="C53">
-        <v>0.000226300866002985</v>
+        <v>-0.03144728947425252</v>
       </c>
       <c r="D53">
-        <v>-0.01318381329382132</v>
+        <v>0.000699012300626485</v>
       </c>
       <c r="E53">
-        <v>-0.05585776841246911</v>
+        <v>-0.02090161296664925</v>
       </c>
       <c r="F53">
-        <v>0.2238989405275544</v>
+        <v>0.01233082904543169</v>
       </c>
       <c r="G53">
-        <v>-0.06479246781319078</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.01200130163997398</v>
+      </c>
+      <c r="H53">
+        <v>0.1096026037512232</v>
+      </c>
+      <c r="I53">
+        <v>0.2666653206382179</v>
+      </c>
+      <c r="J53">
+        <v>-0.09044403314603773</v>
+      </c>
+      <c r="K53">
+        <v>-0.08263945699418844</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.05351642219727505</v>
+        <v>0.05268502838978099</v>
       </c>
       <c r="C54">
-        <v>-0.006683499379428084</v>
+        <v>-0.03179585418941763</v>
       </c>
       <c r="D54">
-        <v>-0.02600081519849181</v>
+        <v>-0.002221709327547639</v>
       </c>
       <c r="E54">
-        <v>0.04053988117349808</v>
+        <v>0.006519103957410646</v>
       </c>
       <c r="F54">
-        <v>0.02314408101327358</v>
+        <v>0.02565790510514192</v>
       </c>
       <c r="G54">
-        <v>0.06952131359459841</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.06826974684064087</v>
+      </c>
+      <c r="H54">
+        <v>-0.1214453640948981</v>
+      </c>
+      <c r="I54">
+        <v>-0.004534526560754809</v>
+      </c>
+      <c r="J54">
+        <v>-0.1167389875408524</v>
+      </c>
+      <c r="K54">
+        <v>0.06391920065291115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.0928821593631564</v>
+        <v>0.08904366906934362</v>
       </c>
       <c r="C55">
-        <v>-0.0168978998377903</v>
+        <v>-0.03302992429219524</v>
       </c>
       <c r="D55">
-        <v>-0.02040002994661141</v>
+        <v>0.05180435500671111</v>
       </c>
       <c r="E55">
-        <v>-0.0002536371785774739</v>
+        <v>-0.04016678640633825</v>
       </c>
       <c r="F55">
-        <v>0.1792031553669769</v>
+        <v>-0.0009451212078528969</v>
       </c>
       <c r="G55">
-        <v>-0.01405358109704778</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01881931113085732</v>
+      </c>
+      <c r="H55">
+        <v>0.01990743323075937</v>
+      </c>
+      <c r="I55">
+        <v>0.1648832214892057</v>
+      </c>
+      <c r="J55">
+        <v>-0.04609667564417796</v>
+      </c>
+      <c r="K55">
+        <v>-0.03046273822834455</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1605464029822357</v>
+        <v>0.159840327757694</v>
       </c>
       <c r="C56">
-        <v>-0.002014421841458512</v>
+        <v>-0.04428892073423066</v>
       </c>
       <c r="D56">
-        <v>-0.005774203461005496</v>
+        <v>0.01600561125671234</v>
       </c>
       <c r="E56">
-        <v>-0.0549600482345853</v>
+        <v>-0.04631586420457603</v>
       </c>
       <c r="F56">
-        <v>0.2248184285573962</v>
+        <v>0.006673767076883474</v>
       </c>
       <c r="G56">
-        <v>-0.06602337906767715</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.04442845560293958</v>
+      </c>
+      <c r="H56">
+        <v>0.07736989402087437</v>
+      </c>
+      <c r="I56">
+        <v>0.2240386536646736</v>
+      </c>
+      <c r="J56">
+        <v>-0.06086652167385299</v>
+      </c>
+      <c r="K56">
+        <v>-0.07421444548955498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03089175151802812</v>
+        <v>0.0423584683590792</v>
       </c>
       <c r="C58">
-        <v>-0.05244308513126386</v>
+        <v>-0.03034806123935217</v>
       </c>
       <c r="D58">
-        <v>0.02420850178661375</v>
+        <v>0.004386020284778637</v>
       </c>
       <c r="E58">
-        <v>0.2757849160305192</v>
+        <v>0.05776409555430918</v>
       </c>
       <c r="F58">
-        <v>-0.4776495498081205</v>
+        <v>0.06091846335465416</v>
       </c>
       <c r="G58">
-        <v>0.174709285347897</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1129592479673585</v>
+      </c>
+      <c r="H58">
+        <v>0.01025258199614588</v>
+      </c>
+      <c r="I58">
+        <v>-0.1805684438342828</v>
+      </c>
+      <c r="J58">
+        <v>0.00165131774745472</v>
+      </c>
+      <c r="K58">
+        <v>0.2747491214183317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1561507419923447</v>
+        <v>0.179707891313349</v>
       </c>
       <c r="C59">
-        <v>0.3888376825123807</v>
+        <v>0.300296490865842</v>
       </c>
       <c r="D59">
-        <v>-0.09229983110982523</v>
+        <v>0.03171933602289632</v>
       </c>
       <c r="E59">
-        <v>-0.07404646294447723</v>
+        <v>-0.05862449766059268</v>
       </c>
       <c r="F59">
-        <v>0.037796527007649</v>
+        <v>-0.01185995659280585</v>
       </c>
       <c r="G59">
-        <v>0.02964598350707282</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0211122234809535</v>
+      </c>
+      <c r="H59">
+        <v>-0.05543633978138218</v>
+      </c>
+      <c r="I59">
+        <v>0.06320545462566733</v>
+      </c>
+      <c r="J59">
+        <v>0.02332568536274693</v>
+      </c>
+      <c r="K59">
+        <v>-0.02283278018062382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2650535757380559</v>
+        <v>0.2666510663371096</v>
       </c>
       <c r="C60">
-        <v>-0.07432984772440947</v>
+        <v>-0.1435973650140559</v>
       </c>
       <c r="D60">
-        <v>-0.07374698713534689</v>
+        <v>-0.05413911900610822</v>
       </c>
       <c r="E60">
-        <v>-0.08211994182389447</v>
+        <v>-0.1256974297608992</v>
       </c>
       <c r="F60">
-        <v>-0.08898579456346543</v>
+        <v>0.03464737594229567</v>
       </c>
       <c r="G60">
-        <v>-0.168772004588829</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.07018769695343136</v>
+      </c>
+      <c r="H60">
+        <v>0.2083455187834732</v>
+      </c>
+      <c r="I60">
+        <v>-0.2170007185180125</v>
+      </c>
+      <c r="J60">
+        <v>0.08662203431229554</v>
+      </c>
+      <c r="K60">
+        <v>-0.3374525954602305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.09449592807476952</v>
+        <v>0.1066004969190675</v>
       </c>
       <c r="C61">
-        <v>-0.01886468976540378</v>
+        <v>-0.04716093147635881</v>
       </c>
       <c r="D61">
-        <v>-0.005302917778658317</v>
+        <v>0.03717320011401392</v>
       </c>
       <c r="E61">
-        <v>0.02079377529415472</v>
+        <v>-0.06469668413625246</v>
       </c>
       <c r="F61">
-        <v>0.0218590290780906</v>
+        <v>-0.03111190732350084</v>
       </c>
       <c r="G61">
-        <v>0.06528056652595929</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.1187105097332491</v>
+      </c>
+      <c r="H61">
+        <v>-0.08720455224753823</v>
+      </c>
+      <c r="I61">
+        <v>0.04679213156556621</v>
+      </c>
+      <c r="J61">
+        <v>0.08914208014907647</v>
+      </c>
+      <c r="K61">
+        <v>0.03156076148405505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.14445562640443</v>
+        <v>0.1542925379314992</v>
       </c>
       <c r="C62">
-        <v>-0.02589668267843371</v>
+        <v>-0.04755178053098316</v>
       </c>
       <c r="D62">
-        <v>0.0324800303712549</v>
+        <v>0.01885994025936034</v>
       </c>
       <c r="E62">
-        <v>-0.1252563487853899</v>
+        <v>-0.03718742030077959</v>
       </c>
       <c r="F62">
-        <v>0.2353547053995081</v>
+        <v>-0.01207205023207103</v>
       </c>
       <c r="G62">
-        <v>-0.03133145266793214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.02366556296444228</v>
+      </c>
+      <c r="H62">
+        <v>0.09381844600053797</v>
+      </c>
+      <c r="I62">
+        <v>0.2218253956463577</v>
+      </c>
+      <c r="J62">
+        <v>-0.08783486696794206</v>
+      </c>
+      <c r="K62">
+        <v>-0.06955926934388414</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.04383232875462939</v>
+        <v>0.04023664947909348</v>
       </c>
       <c r="C63">
-        <v>-0.01483169472896943</v>
+        <v>-0.00409382091506316</v>
       </c>
       <c r="D63">
-        <v>0.007472827249047778</v>
+        <v>0.009444799475151944</v>
       </c>
       <c r="E63">
-        <v>0.01371030273333547</v>
+        <v>0.02025822972101018</v>
       </c>
       <c r="F63">
-        <v>0.02153651405232599</v>
+        <v>-0.01904549628799833</v>
       </c>
       <c r="G63">
-        <v>0.04121988072460513</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.0390594856041913</v>
+      </c>
+      <c r="H63">
+        <v>-0.05375591709883658</v>
+      </c>
+      <c r="I63">
+        <v>-0.01529240466885311</v>
+      </c>
+      <c r="J63">
+        <v>-0.01123696320831019</v>
+      </c>
+      <c r="K63">
+        <v>0.009037267771682579</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1064341425891239</v>
+        <v>0.09953659279311788</v>
       </c>
       <c r="C64">
-        <v>-0.01194304566500665</v>
+        <v>-0.02516119895843405</v>
       </c>
       <c r="D64">
-        <v>-0.03900877751111161</v>
+        <v>-0.005298120988541772</v>
       </c>
       <c r="E64">
-        <v>0.03454235820912806</v>
+        <v>-0.03520961844208239</v>
       </c>
       <c r="F64">
-        <v>-0.01729315626938825</v>
+        <v>0.03769009802125949</v>
       </c>
       <c r="G64">
-        <v>0.05281197845491212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.0618371217493686</v>
+      </c>
+      <c r="H64">
+        <v>-0.04155262025928722</v>
+      </c>
+      <c r="I64">
+        <v>-0.0829716552290036</v>
+      </c>
+      <c r="J64">
+        <v>0.0221169571992423</v>
+      </c>
+      <c r="K64">
+        <v>-0.04133719456057498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1201598701020063</v>
+        <v>0.1150060714228706</v>
       </c>
       <c r="C65">
-        <v>-0.02539879749806397</v>
+        <v>-0.007481497062388609</v>
       </c>
       <c r="D65">
-        <v>-0.01870797993899544</v>
+        <v>-0.002395831842837022</v>
       </c>
       <c r="E65">
-        <v>0.05971508407835623</v>
+        <v>0.02764611059644513</v>
       </c>
       <c r="F65">
-        <v>-0.19394320411498</v>
+        <v>-0.01580901322009551</v>
       </c>
       <c r="G65">
-        <v>-0.1997843659149254</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.04782901761603836</v>
+      </c>
+      <c r="H65">
+        <v>0.000523384584206932</v>
+      </c>
+      <c r="I65">
+        <v>-0.2973928502935492</v>
+      </c>
+      <c r="J65">
+        <v>-0.4737753857311968</v>
+      </c>
+      <c r="K65">
+        <v>-0.2740202971682688</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1607308799143715</v>
+        <v>0.1458348831379613</v>
       </c>
       <c r="C66">
-        <v>-0.04908012653781079</v>
+        <v>-0.1020341410657159</v>
       </c>
       <c r="D66">
-        <v>0.01720080648380147</v>
+        <v>0.05128016541931033</v>
       </c>
       <c r="E66">
-        <v>0.01692471497327963</v>
+        <v>-0.07584184460060049</v>
       </c>
       <c r="F66">
-        <v>0.04161105548383897</v>
+        <v>-0.08095014623506841</v>
       </c>
       <c r="G66">
-        <v>0.2916558895594116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.1298632106621208</v>
+      </c>
+      <c r="H66">
+        <v>-0.06056880408315876</v>
+      </c>
+      <c r="I66">
+        <v>0.007883858948955567</v>
+      </c>
+      <c r="J66">
+        <v>0.2187281651016071</v>
+      </c>
+      <c r="K66">
+        <v>-0.04329341361915482</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.1056169278093685</v>
+        <v>0.07832606747952595</v>
       </c>
       <c r="C67">
-        <v>-0.03880918371242864</v>
+        <v>-0.05214714067014528</v>
       </c>
       <c r="D67">
-        <v>-0.02302335521453898</v>
+        <v>0.07504916470928018</v>
       </c>
       <c r="E67">
-        <v>-0.01668670355704869</v>
+        <v>-0.02630677596874802</v>
       </c>
       <c r="F67">
-        <v>0.01937974213738613</v>
+        <v>0.02110054972159767</v>
       </c>
       <c r="G67">
-        <v>0.04916592059809946</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.05332165993208812</v>
+      </c>
+      <c r="H67">
+        <v>0.01798398639726541</v>
+      </c>
+      <c r="I67">
+        <v>0.007703479838718465</v>
+      </c>
+      <c r="J67">
+        <v>0.05109301894361476</v>
+      </c>
+      <c r="K67">
+        <v>-0.08069491384245421</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04240013627663918</v>
+        <v>0.08950064833100094</v>
       </c>
       <c r="C68">
-        <v>0.2925322507586945</v>
+        <v>0.2835018059010424</v>
       </c>
       <c r="D68">
-        <v>-0.04033369328952204</v>
+        <v>0.005110668915152931</v>
       </c>
       <c r="E68">
-        <v>-0.01027272780132111</v>
+        <v>-0.009598632745590663</v>
       </c>
       <c r="F68">
-        <v>-0.009478708999930885</v>
+        <v>-0.0235043335958313</v>
       </c>
       <c r="G68">
-        <v>-0.02612852759585337</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03496550516065052</v>
+      </c>
+      <c r="H68">
+        <v>-0.02808659966920057</v>
+      </c>
+      <c r="I68">
+        <v>-0.004080425186584904</v>
+      </c>
+      <c r="J68">
+        <v>-0.006115639889026326</v>
+      </c>
+      <c r="K68">
+        <v>-0.01755472849053512</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.04702029256828138</v>
+        <v>0.03722619053622012</v>
       </c>
       <c r="C69">
-        <v>-0.01708585820684372</v>
+        <v>-0.005441230922184227</v>
       </c>
       <c r="D69">
-        <v>4.040004087655661e-05</v>
+        <v>0.02543062382211686</v>
       </c>
       <c r="E69">
-        <v>0.001917256942552559</v>
+        <v>-0.01152525228931668</v>
       </c>
       <c r="F69">
-        <v>0.001553959669660954</v>
+        <v>0.009188533551305191</v>
       </c>
       <c r="G69">
-        <v>0.02267515722292001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01946217856561998</v>
+      </c>
+      <c r="H69">
+        <v>0.0009263203291808702</v>
+      </c>
+      <c r="I69">
+        <v>0.006434428733802271</v>
+      </c>
+      <c r="J69">
+        <v>-0.02628235980449683</v>
+      </c>
+      <c r="K69">
+        <v>-0.009679792223310236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.07367288179525308</v>
+        <v>0.04641873218866281</v>
       </c>
       <c r="C70">
-        <v>-0.00841303385704637</v>
+        <v>-0.002839284579901981</v>
       </c>
       <c r="D70">
-        <v>-0.03343606202055504</v>
+        <v>0.02899729668505053</v>
       </c>
       <c r="E70">
-        <v>-0.0321107929118335</v>
+        <v>-0.0486156656590867</v>
       </c>
       <c r="F70">
-        <v>-0.06882004987547055</v>
+        <v>0.004528625429244325</v>
       </c>
       <c r="G70">
-        <v>-0.01115582405735214</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.01492874956573378</v>
+      </c>
+      <c r="H70">
+        <v>-0.01068107493735224</v>
+      </c>
+      <c r="I70">
+        <v>-0.07108689383666093</v>
+      </c>
+      <c r="J70">
+        <v>-0.1403352399771996</v>
+      </c>
+      <c r="K70">
+        <v>0.145819324407291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.05232885293117012</v>
+        <v>0.1047284197577581</v>
       </c>
       <c r="C71">
-        <v>0.2930315185911502</v>
+        <v>0.2965096842685003</v>
       </c>
       <c r="D71">
-        <v>-0.05801564870096455</v>
+        <v>0.007022061386939502</v>
       </c>
       <c r="E71">
-        <v>-0.007689756057941534</v>
+        <v>-0.02738156907015568</v>
       </c>
       <c r="F71">
-        <v>-0.005965722163783808</v>
+        <v>0.003148235014038664</v>
       </c>
       <c r="G71">
-        <v>0.009581597488297742</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.04620430083241896</v>
+      </c>
+      <c r="H71">
+        <v>-0.01982609476636512</v>
+      </c>
+      <c r="I71">
+        <v>-0.0009251742824646704</v>
+      </c>
+      <c r="J71">
+        <v>0.02145297338768696</v>
+      </c>
+      <c r="K71">
+        <v>-0.03877996375189793</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1464807683943589</v>
+        <v>0.1470914784155761</v>
       </c>
       <c r="C72">
-        <v>0.05118496169823125</v>
+        <v>-0.0005849473028471493</v>
       </c>
       <c r="D72">
-        <v>0.2356525504483291</v>
+        <v>0.01516904058122551</v>
       </c>
       <c r="E72">
-        <v>-0.03366984882961614</v>
+        <v>0.0734837561285667</v>
       </c>
       <c r="F72">
-        <v>0.03387591614087809</v>
+        <v>-0.06986551970702387</v>
       </c>
       <c r="G72">
-        <v>0.05358112492077739</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.0002681117148626473</v>
+      </c>
+      <c r="H72">
+        <v>0.0229677017549998</v>
+      </c>
+      <c r="I72">
+        <v>0.02546176026496601</v>
+      </c>
+      <c r="J72">
+        <v>-0.08928805448230547</v>
+      </c>
+      <c r="K72">
+        <v>-0.1599360139138726</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2832208426685538</v>
+        <v>0.2418694899108201</v>
       </c>
       <c r="C73">
-        <v>-0.1648268390302314</v>
+        <v>-0.09710740910282778</v>
       </c>
       <c r="D73">
-        <v>-0.0399890935195935</v>
+        <v>0.03044039687308965</v>
       </c>
       <c r="E73">
-        <v>-0.1546370884255412</v>
+        <v>-0.1590657189984213</v>
       </c>
       <c r="F73">
-        <v>-0.3081083903669733</v>
+        <v>0.02436135447866559</v>
       </c>
       <c r="G73">
-        <v>-0.2300930353725326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.324492909453551</v>
+      </c>
+      <c r="H73">
+        <v>0.2615615979262441</v>
+      </c>
+      <c r="I73">
+        <v>-0.2475925773656126</v>
+      </c>
+      <c r="J73">
+        <v>0.2349977763344733</v>
+      </c>
+      <c r="K73">
+        <v>0.07737039464189575</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.09819785953909202</v>
+        <v>0.1137192852292233</v>
       </c>
       <c r="C74">
-        <v>-0.03796780961499082</v>
+        <v>-0.05342310427452011</v>
       </c>
       <c r="D74">
-        <v>-0.001152221787335963</v>
+        <v>0.03261633445763858</v>
       </c>
       <c r="E74">
-        <v>-0.01540289754173235</v>
+        <v>-0.01364655503986174</v>
       </c>
       <c r="F74">
-        <v>0.09967387751648485</v>
+        <v>0.003913686907982479</v>
       </c>
       <c r="G74">
-        <v>-0.0347375555292489</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.0528881455541783</v>
+      </c>
+      <c r="H74">
+        <v>0.08867654900184385</v>
+      </c>
+      <c r="I74">
+        <v>0.1340953554312217</v>
+      </c>
+      <c r="J74">
+        <v>-0.05160364222985893</v>
+      </c>
+      <c r="K74">
+        <v>-0.01306689546095411</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.09275577629781863</v>
+        <v>0.1110423639436714</v>
       </c>
       <c r="C75">
-        <v>-0.01895159265292692</v>
+        <v>-0.04452706728669421</v>
       </c>
       <c r="D75">
-        <v>0.0217677811990047</v>
+        <v>0.008460289006190454</v>
       </c>
       <c r="E75">
-        <v>-0.03519910411316156</v>
+        <v>0.0005253027758419169</v>
       </c>
       <c r="F75">
-        <v>0.1096448062547919</v>
+        <v>-0.007688688570112635</v>
       </c>
       <c r="G75">
-        <v>-0.06548600915042009</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.006059469336987857</v>
+      </c>
+      <c r="H75">
+        <v>0.04434151343783155</v>
+      </c>
+      <c r="I75">
+        <v>0.1522012544287214</v>
+      </c>
+      <c r="J75">
+        <v>-0.04770505418900123</v>
+      </c>
+      <c r="K75">
+        <v>-0.002131375157194986</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1357088379499604</v>
+        <v>0.05636443138141088</v>
       </c>
       <c r="C76">
-        <v>-0.03154285301689065</v>
+        <v>-0.01774664465725488</v>
       </c>
       <c r="D76">
-        <v>-0.01906115536120013</v>
+        <v>0.03173990962423517</v>
       </c>
       <c r="E76">
-        <v>0.01709582926565441</v>
+        <v>-0.02117762603021486</v>
       </c>
       <c r="F76">
-        <v>0.2175157712112242</v>
+        <v>0.0262216907795363</v>
       </c>
       <c r="G76">
-        <v>-0.09968662767957857</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.03889193693230789</v>
+      </c>
+      <c r="H76">
+        <v>0.04472293391918539</v>
+      </c>
+      <c r="I76">
+        <v>0.1333991901274159</v>
+      </c>
+      <c r="J76">
+        <v>-0.04425266316211979</v>
+      </c>
+      <c r="K76">
+        <v>-0.01361930365965043</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.09074045414600845</v>
+        <v>0.07462368186378514</v>
       </c>
       <c r="C77">
-        <v>0.009505194807318049</v>
+        <v>-0.03893241139104704</v>
       </c>
       <c r="D77">
-        <v>-0.04502947970389965</v>
+        <v>-0.02499921660849323</v>
       </c>
       <c r="E77">
-        <v>0.05564184955428148</v>
+        <v>-0.02144706474659641</v>
       </c>
       <c r="F77">
-        <v>-0.1547810519456353</v>
+        <v>0.03433908478313293</v>
       </c>
       <c r="G77">
-        <v>0.1947989606248405</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.09067772975942809</v>
+      </c>
+      <c r="H77">
+        <v>-0.2108109104472412</v>
+      </c>
+      <c r="I77">
+        <v>-0.1728375262449454</v>
+      </c>
+      <c r="J77">
+        <v>-0.05759612015889452</v>
+      </c>
+      <c r="K77">
+        <v>-0.2058929052451325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.2179184438793696</v>
+        <v>0.1521170352067027</v>
       </c>
       <c r="C78">
-        <v>-0.07592984300696114</v>
+        <v>-0.08355744524534743</v>
       </c>
       <c r="D78">
-        <v>-0.06675279661803961</v>
+        <v>0.1036243769190404</v>
       </c>
       <c r="E78">
-        <v>0.1837541045040651</v>
+        <v>0.2008866670219973</v>
       </c>
       <c r="F78">
-        <v>0.02954784395662376</v>
+        <v>0.1546835308255035</v>
       </c>
       <c r="G78">
-        <v>0.1348626721612486</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.6172434199176332</v>
+      </c>
+      <c r="H78">
+        <v>-0.6186240865339209</v>
+      </c>
+      <c r="I78">
+        <v>0.2060837837015478</v>
+      </c>
+      <c r="J78">
+        <v>0.0603624108923349</v>
+      </c>
+      <c r="K78">
+        <v>-0.03244531967818747</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1357688668218411</v>
+        <v>0.1374752143863469</v>
       </c>
       <c r="C79">
-        <v>-0.01329910726494741</v>
+        <v>-0.04519265124409558</v>
       </c>
       <c r="D79">
-        <v>0.001811464133333201</v>
+        <v>-0.008159427336581444</v>
       </c>
       <c r="E79">
-        <v>-0.02007940703095653</v>
+        <v>-0.01347296578757781</v>
       </c>
       <c r="F79">
-        <v>0.1587857359705339</v>
+        <v>-0.002458525278398325</v>
       </c>
       <c r="G79">
-        <v>-0.01457810560008477</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.03623260692590616</v>
+      </c>
+      <c r="H79">
+        <v>0.05949092136027616</v>
+      </c>
+      <c r="I79">
+        <v>0.1533157289266055</v>
+      </c>
+      <c r="J79">
+        <v>-0.06860172943086437</v>
+      </c>
+      <c r="K79">
+        <v>-0.06881021131064081</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03401812648492306</v>
+        <v>0.06280312321970147</v>
       </c>
       <c r="C80">
-        <v>-0.009130372212706409</v>
+        <v>-0.04324821761863196</v>
       </c>
       <c r="D80">
-        <v>-0.01822616915594611</v>
+        <v>0.03112054770082101</v>
       </c>
       <c r="E80">
-        <v>-0.02733636747878251</v>
+        <v>-0.05166866108950814</v>
       </c>
       <c r="F80">
-        <v>-0.01430893760275791</v>
+        <v>-0.01981666926613201</v>
       </c>
       <c r="G80">
-        <v>0.06269546266145801</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.02662799540059377</v>
+      </c>
+      <c r="H80">
+        <v>-0.08097596887413638</v>
+      </c>
+      <c r="I80">
+        <v>0.02299145996151767</v>
+      </c>
+      <c r="J80">
+        <v>-0.01958706567015428</v>
+      </c>
+      <c r="K80">
+        <v>0.1744591683729729</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1095203187680396</v>
+        <v>0.1326722349914978</v>
       </c>
       <c r="C81">
-        <v>-0.007942883875815409</v>
+        <v>-0.04993528748254955</v>
       </c>
       <c r="D81">
-        <v>-0.01104626382228568</v>
+        <v>0.007192169455855761</v>
       </c>
       <c r="E81">
-        <v>-0.01530293981301961</v>
+        <v>-0.01437604162587442</v>
       </c>
       <c r="F81">
-        <v>0.135466480509166</v>
+        <v>0.009572598982821368</v>
       </c>
       <c r="G81">
-        <v>-0.04573450978503945</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.04786136353531924</v>
+      </c>
+      <c r="H81">
+        <v>0.03536065809428667</v>
+      </c>
+      <c r="I81">
+        <v>0.1511827526383046</v>
+      </c>
+      <c r="J81">
+        <v>-0.03131377610096665</v>
+      </c>
+      <c r="K81">
+        <v>-0.01609774834893615</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1074959035817668</v>
+        <v>0.1452510526105165</v>
       </c>
       <c r="C82">
-        <v>-0.03092428037380424</v>
+        <v>-0.04255239990238879</v>
       </c>
       <c r="D82">
-        <v>-0.05572043774316802</v>
+        <v>0.008011530026574589</v>
       </c>
       <c r="E82">
-        <v>-0.05484958455200904</v>
+        <v>-0.06464767889958113</v>
       </c>
       <c r="F82">
-        <v>0.2249405464973976</v>
+        <v>-0.005402112237697769</v>
       </c>
       <c r="G82">
-        <v>-0.01508719797341268</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.04980154066467218</v>
+      </c>
+      <c r="H82">
+        <v>0.1215142666054392</v>
+      </c>
+      <c r="I82">
+        <v>0.2725271710972269</v>
+      </c>
+      <c r="J82">
+        <v>-0.01363058500425428</v>
+      </c>
+      <c r="K82">
+        <v>0.02395915414413142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.105182937154732</v>
+        <v>0.09402784904263899</v>
       </c>
       <c r="C83">
-        <v>-0.06018006347038572</v>
+        <v>-0.09853314870765513</v>
       </c>
       <c r="D83">
-        <v>-0.05629788104902785</v>
+        <v>-0.01139674512504043</v>
       </c>
       <c r="E83">
-        <v>-0.01997808055502076</v>
+        <v>-0.005003036600870181</v>
       </c>
       <c r="F83">
-        <v>-0.07929808818524593</v>
+        <v>0.01285756787911258</v>
       </c>
       <c r="G83">
-        <v>0.08380270292842386</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04810462239721545</v>
+      </c>
+      <c r="H83">
+        <v>-0.08137645585983626</v>
+      </c>
+      <c r="I83">
+        <v>-0.03248018121720116</v>
+      </c>
+      <c r="J83">
+        <v>-0.1393344422341674</v>
+      </c>
+      <c r="K83">
+        <v>0.1316742984732893</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.04847876537556866</v>
+        <v>0.05656083321289359</v>
       </c>
       <c r="C84">
-        <v>-0.02070453051530678</v>
+        <v>0.003932187278032906</v>
       </c>
       <c r="D84">
-        <v>0.04882141133868432</v>
+        <v>-0.02745726980347621</v>
       </c>
       <c r="E84">
-        <v>0.02564616844364048</v>
+        <v>-0.02971331659186126</v>
       </c>
       <c r="F84">
-        <v>0.02362900188769045</v>
+        <v>-0.0126059232967284</v>
       </c>
       <c r="G84">
-        <v>-0.0383081616358103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.01505785523958354</v>
+      </c>
+      <c r="H84">
+        <v>-0.005798195098528758</v>
+      </c>
+      <c r="I84">
+        <v>-0.0668803032808038</v>
+      </c>
+      <c r="J84">
+        <v>0.3477308021178706</v>
+      </c>
+      <c r="K84">
+        <v>0.1208588816912372</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1003486496423601</v>
+        <v>0.1185505169886844</v>
       </c>
       <c r="C85">
-        <v>-0.02170085707709423</v>
+        <v>-0.03621401083666503</v>
       </c>
       <c r="D85">
-        <v>-0.02274464139725301</v>
+        <v>0.002381808724759844</v>
       </c>
       <c r="E85">
-        <v>-0.02314374853053878</v>
+        <v>-0.03669900102137687</v>
       </c>
       <c r="F85">
-        <v>0.1900813092835862</v>
+        <v>0.01594418244039368</v>
       </c>
       <c r="G85">
-        <v>-0.02774185112843157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.03493887637751968</v>
+      </c>
+      <c r="H85">
+        <v>0.04194768301261009</v>
+      </c>
+      <c r="I85">
+        <v>0.1909453883057173</v>
+      </c>
+      <c r="J85">
+        <v>-0.06580006124599438</v>
+      </c>
+      <c r="K85">
+        <v>-0.05849730131567857</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.06852100390738415</v>
+        <v>0.1335721522731007</v>
       </c>
       <c r="C86">
-        <v>-0.02101535592863871</v>
+        <v>-0.04829743242798124</v>
       </c>
       <c r="D86">
-        <v>-0.05216147811171696</v>
+        <v>-0.931588178508728</v>
       </c>
       <c r="E86">
-        <v>0.0546302119906902</v>
+        <v>0.2243658251997964</v>
       </c>
       <c r="F86">
-        <v>-0.001073491545263852</v>
+        <v>-0.01937654726536886</v>
       </c>
       <c r="G86">
-        <v>0.1000054046126137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.03846564378571381</v>
+      </c>
+      <c r="H86">
+        <v>-0.05957915767029234</v>
+      </c>
+      <c r="I86">
+        <v>0.05614038105736761</v>
+      </c>
+      <c r="J86">
+        <v>0.0473274216938622</v>
+      </c>
+      <c r="K86">
+        <v>0.04541081651687585</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.1038702646173802</v>
+        <v>0.1200683705248402</v>
       </c>
       <c r="C87">
-        <v>-0.05846404390224062</v>
+        <v>-0.1000659205897164</v>
       </c>
       <c r="D87">
-        <v>-0.01952324543255423</v>
+        <v>-0.005807942657395813</v>
       </c>
       <c r="E87">
-        <v>0.06043520753007434</v>
+        <v>-0.02281510633659197</v>
       </c>
       <c r="F87">
-        <v>-0.02291329246928378</v>
+        <v>0.02523300074228581</v>
       </c>
       <c r="G87">
-        <v>0.1070635511111524</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08361552104079771</v>
+      </c>
+      <c r="H87">
+        <v>-0.1152582887465006</v>
+      </c>
+      <c r="I87">
+        <v>-0.136906180744974</v>
+      </c>
+      <c r="J87">
+        <v>-0.0901521952548167</v>
+      </c>
+      <c r="K87">
+        <v>-0.03320282315292457</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.06803637402359611</v>
+        <v>0.0579626017033353</v>
       </c>
       <c r="C88">
-        <v>-0.03828131666714104</v>
+        <v>-0.04088540483781999</v>
       </c>
       <c r="D88">
-        <v>-0.02029070141910283</v>
+        <v>0.01690739062013707</v>
       </c>
       <c r="E88">
-        <v>0.01076769013204741</v>
+        <v>-0.04488373464744711</v>
       </c>
       <c r="F88">
-        <v>0.00625311443743891</v>
+        <v>-0.02295271332409625</v>
       </c>
       <c r="G88">
-        <v>0.06056350044340095</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.0234725723594017</v>
+      </c>
+      <c r="H88">
+        <v>-0.01844163293658</v>
+      </c>
+      <c r="I88">
+        <v>-0.002670804326106071</v>
+      </c>
+      <c r="J88">
+        <v>0.005301010363805259</v>
+      </c>
+      <c r="K88">
+        <v>0.01366159323869251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.0970075499825718</v>
+        <v>0.1558782861113029</v>
       </c>
       <c r="C89">
-        <v>0.3697457642627889</v>
+        <v>0.372135180008964</v>
       </c>
       <c r="D89">
-        <v>-0.1152846750982145</v>
+        <v>0.005008202826693408</v>
       </c>
       <c r="E89">
-        <v>0.01638267068553504</v>
+        <v>-0.01257895886808386</v>
       </c>
       <c r="F89">
-        <v>-0.05703381794945199</v>
+        <v>0.06597253958138238</v>
       </c>
       <c r="G89">
-        <v>0.01028190325337192</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.003126732535813267</v>
+      </c>
+      <c r="H89">
+        <v>-0.04854592663225202</v>
+      </c>
+      <c r="I89">
+        <v>-0.01743270316619395</v>
+      </c>
+      <c r="J89">
+        <v>0.02123636377208693</v>
+      </c>
+      <c r="K89">
+        <v>0.08363537585242747</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.07799344934321241</v>
+        <v>0.12042125750247</v>
       </c>
       <c r="C90">
-        <v>0.2919499359291387</v>
+        <v>0.2844005372289591</v>
       </c>
       <c r="D90">
-        <v>-0.05361101798950629</v>
+        <v>-0.007041292615316516</v>
       </c>
       <c r="E90">
-        <v>0.04509844514352428</v>
+        <v>-0.02919268107731567</v>
       </c>
       <c r="F90">
-        <v>-0.05141735896070317</v>
+        <v>0.001783049642226825</v>
       </c>
       <c r="G90">
-        <v>0.05064303667746544</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04565745997946141</v>
+      </c>
+      <c r="H90">
+        <v>-0.03307315112826043</v>
+      </c>
+      <c r="I90">
+        <v>-0.05323428152790279</v>
+      </c>
+      <c r="J90">
+        <v>0.04940500401963195</v>
+      </c>
+      <c r="K90">
+        <v>-0.01778480192335065</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.08346661918536816</v>
+        <v>0.08384589528678145</v>
       </c>
       <c r="C91">
-        <v>-0.01911251231868039</v>
+        <v>-0.03769987477649495</v>
       </c>
       <c r="D91">
-        <v>-0.004855751377668109</v>
+        <v>-0.0118393969463511</v>
       </c>
       <c r="E91">
-        <v>-0.01529831996977266</v>
+        <v>-0.01490472187253724</v>
       </c>
       <c r="F91">
-        <v>0.0798312832134352</v>
+        <v>0.01423166517162646</v>
       </c>
       <c r="G91">
-        <v>-0.07208609216865879</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.01133102812089257</v>
+      </c>
+      <c r="H91">
+        <v>0.05057547295413937</v>
+      </c>
+      <c r="I91">
+        <v>0.1155802650064599</v>
+      </c>
+      <c r="J91">
+        <v>-0.04325995256764227</v>
+      </c>
+      <c r="K91">
+        <v>-0.01905221294950745</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.07413850524430016</v>
+        <v>0.1296496364158249</v>
       </c>
       <c r="C92">
-        <v>0.3372331496749234</v>
+        <v>0.334773752460044</v>
       </c>
       <c r="D92">
-        <v>-0.07757373523694382</v>
+        <v>0.003876298824702199</v>
       </c>
       <c r="E92">
-        <v>0.02239134581360135</v>
+        <v>0.0002712811232108736</v>
       </c>
       <c r="F92">
-        <v>-0.03836990426794516</v>
+        <v>0.03840651238552018</v>
       </c>
       <c r="G92">
-        <v>-0.02820521780742854</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02192212936751644</v>
+      </c>
+      <c r="H92">
+        <v>-0.07185597880472912</v>
+      </c>
+      <c r="I92">
+        <v>0.03361058683199788</v>
+      </c>
+      <c r="J92">
+        <v>0.02458272522066882</v>
+      </c>
+      <c r="K92">
+        <v>0.003907120458249202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.08718720525934345</v>
+        <v>0.1243556172585445</v>
       </c>
       <c r="C93">
-        <v>0.2946589044401276</v>
+        <v>0.3157056989877109</v>
       </c>
       <c r="D93">
-        <v>-0.05416751453221868</v>
+        <v>-0.02432524805080557</v>
       </c>
       <c r="E93">
-        <v>0.00999989603377369</v>
+        <v>-0.0478987365836453</v>
       </c>
       <c r="F93">
-        <v>-0.01723774046408529</v>
+        <v>-0.009986491114823887</v>
       </c>
       <c r="G93">
-        <v>-0.01917944370849292</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03925234414481237</v>
+      </c>
+      <c r="H93">
+        <v>-0.0007069713974601587</v>
+      </c>
+      <c r="I93">
+        <v>-0.02164448876825404</v>
+      </c>
+      <c r="J93">
+        <v>0.01287186290042112</v>
+      </c>
+      <c r="K93">
+        <v>-0.01525272570472012</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.09208878838900664</v>
+        <v>0.1266036586321631</v>
       </c>
       <c r="C94">
-        <v>-0.04842049500222435</v>
+        <v>-0.05721331032998057</v>
       </c>
       <c r="D94">
-        <v>0.009094469841017506</v>
+        <v>0.03005986012728097</v>
       </c>
       <c r="E94">
-        <v>-0.00680267794278887</v>
+        <v>-0.01261604858762632</v>
       </c>
       <c r="F94">
-        <v>0.1208345569633009</v>
+        <v>0.02030092356987646</v>
       </c>
       <c r="G94">
-        <v>-0.07178790835815789</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.01075596932505787</v>
+      </c>
+      <c r="H94">
+        <v>0.08311176852328056</v>
+      </c>
+      <c r="I94">
+        <v>0.1354847189539423</v>
+      </c>
+      <c r="J94">
+        <v>-0.0009119179502616565</v>
+      </c>
+      <c r="K94">
+        <v>-0.01809880159725011</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1352910947541005</v>
+        <v>0.1187606690801718</v>
       </c>
       <c r="C95">
-        <v>-0.07067798274773908</v>
+        <v>-0.05140693546516418</v>
       </c>
       <c r="D95">
-        <v>-0.05682914156603827</v>
+        <v>0.01956032880251926</v>
       </c>
       <c r="E95">
-        <v>0.03782147401648855</v>
+        <v>-0.01768156310695763</v>
       </c>
       <c r="F95">
-        <v>-0.0329975598274153</v>
+        <v>0.06466427303796933</v>
       </c>
       <c r="G95">
-        <v>0.1042196916383962</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.02115285707667574</v>
+      </c>
+      <c r="H95">
+        <v>-0.1173682762570648</v>
+      </c>
+      <c r="I95">
+        <v>-0.1873460952682312</v>
+      </c>
+      <c r="J95">
+        <v>0.007743088738645461</v>
+      </c>
+      <c r="K95">
+        <v>0.1541369084469092</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.009356338400876416</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.001751334806505052</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.001339605542809091</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.004980287940149814</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.004478067007495297</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.0007534956828648731</v>
+      </c>
+      <c r="H96">
+        <v>-0.01671002082263917</v>
+      </c>
+      <c r="I96">
+        <v>-0.01286949955074228</v>
+      </c>
+      <c r="J96">
+        <v>-0.01206564903920319</v>
+      </c>
+      <c r="K96">
+        <v>-0.01946465508390785</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.2007468117192118</v>
+        <v>0.1880359409621471</v>
       </c>
       <c r="C97">
-        <v>0.1575566819965012</v>
+        <v>0.004621816384748558</v>
       </c>
       <c r="D97">
-        <v>0.9011681261559962</v>
+        <v>0.2097811566481378</v>
       </c>
       <c r="E97">
-        <v>0.03322305879055837</v>
+        <v>0.7346259573359685</v>
       </c>
       <c r="F97">
-        <v>-0.04428500027625294</v>
+        <v>-0.5579347819939846</v>
       </c>
       <c r="G97">
-        <v>0.04369234632049608</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.04017285686097261</v>
+      </c>
+      <c r="H97">
+        <v>0.1116763546455802</v>
+      </c>
+      <c r="I97">
+        <v>-0.0597435273964167</v>
+      </c>
+      <c r="J97">
+        <v>0.05930628720267207</v>
+      </c>
+      <c r="K97">
+        <v>0.02873239543215147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.3196386755353922</v>
+        <v>0.2694896446126958</v>
       </c>
       <c r="C98">
-        <v>-0.07157084296249623</v>
+        <v>-0.05346047966219301</v>
       </c>
       <c r="D98">
-        <v>-0.05159535935831112</v>
+        <v>-0.009668721181976796</v>
       </c>
       <c r="E98">
-        <v>-0.2454449618344217</v>
+        <v>-0.02392536875124929</v>
       </c>
       <c r="F98">
-        <v>-0.229239302530025</v>
+        <v>0.04739595013393923</v>
       </c>
       <c r="G98">
-        <v>-0.2808218135893654</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.2756464263170942</v>
+      </c>
+      <c r="H98">
+        <v>0.2377389425937946</v>
+      </c>
+      <c r="I98">
+        <v>-0.07326692102528129</v>
+      </c>
+      <c r="J98">
+        <v>-0.2432500073945117</v>
+      </c>
+      <c r="K98">
+        <v>0.5726925603444809</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.0853426172645366</v>
+        <v>0.05559164016841707</v>
       </c>
       <c r="C99">
-        <v>-0.02702295921964209</v>
+        <v>-0.01016232281199535</v>
       </c>
       <c r="D99">
-        <v>-0.01087752733597199</v>
+        <v>0.0374289530207783</v>
       </c>
       <c r="E99">
-        <v>-0.01533559866990476</v>
+        <v>-0.006903353405396974</v>
       </c>
       <c r="F99">
-        <v>-0.0004307516969922899</v>
+        <v>0.02745093843788286</v>
       </c>
       <c r="G99">
-        <v>0.01503747416126758</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.01411124724691157</v>
+      </c>
+      <c r="H99">
+        <v>-0.007999753154599949</v>
+      </c>
+      <c r="I99">
+        <v>0.01737216427558615</v>
+      </c>
+      <c r="J99">
+        <v>0.01976736084734735</v>
+      </c>
+      <c r="K99">
+        <v>-0.01532197972624184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.02022499441293555</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.03859149044473274</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.09880530808932594</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.03346636524993934</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.04719972534961375</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.08507770927639022</v>
+      </c>
+      <c r="H100">
+        <v>0.01652191320286247</v>
+      </c>
+      <c r="I100">
+        <v>0.04737612414727093</v>
+      </c>
+      <c r="J100">
+        <v>-0.03911006011129667</v>
+      </c>
+      <c r="K100">
+        <v>0.2168332020838577</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05849333610816636</v>
+        <v>0.04136728847635529</v>
       </c>
       <c r="C101">
-        <v>-0.009363410819067122</v>
+        <v>-0.01883175527975156</v>
       </c>
       <c r="D101">
-        <v>-0.0285015013608091</v>
+        <v>0.004854053469307535</v>
       </c>
       <c r="E101">
-        <v>0.04253479261734824</v>
+        <v>-0.03199153364735521</v>
       </c>
       <c r="F101">
-        <v>0.03626985757448575</v>
+        <v>0.006187160217161244</v>
       </c>
       <c r="G101">
-        <v>0.03979141213391665</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.0898155490951731</v>
+      </c>
+      <c r="H101">
+        <v>-0.03745231546756011</v>
+      </c>
+      <c r="I101">
+        <v>0.004726040085697102</v>
+      </c>
+      <c r="J101">
+        <v>-0.05032182382537282</v>
+      </c>
+      <c r="K101">
+        <v>0.04948549879712975</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
